--- a/biology/Histoire de la zoologie et de la botanique/Liste_des_espèces_découvertes_et_décrites_par_l'expédition_Lewis_et_Clark/Liste_des_espèces_découvertes_et_décrites_par_l'expédition_Lewis_et_Clark.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Liste_des_espèces_découvertes_et_décrites_par_l'expédition_Lewis_et_Clark/Liste_des_espèces_découvertes_et_décrites_par_l'expédition_Lewis_et_Clark.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_d%C3%A9couvertes_et_d%C3%A9crites_par_l%27exp%C3%A9dition_Lewis_et_Clark</t>
+          <t>Liste_des_espèces_découvertes_et_décrites_par_l'expédition_Lewis_et_Clark</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L' Expédition Lewis et Clark a décrit 178 nouvelles plantes et 122 espèces et sous-espèces animales.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_d%C3%A9couvertes_et_d%C3%A9crites_par_l%27exp%C3%A9dition_Lewis_et_Clark</t>
+          <t>Liste_des_espèces_découvertes_et_décrites_par_l'expédition_Lewis_et_Clark</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Mammifères
-Espèces nouvelles :
+          <t>Mammifères</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Espèces nouvelles :
 Chien de prairie (Black-tailed Prairie Dog) (Cynomys ludovicianus)
 Rat à queue touffue (Bushy-tailed Woodrat) (Neotoma cinerea)
 Ours Grizzly (Grizzly Bear) (Ursus arctos horribilis ou Ursus ferox)
@@ -547,9 +564,43 @@
 Ecureuil terrestre de Richardson (Richardson's Ground Squirrel ou Flickertail) (Spermophilus richardsonii)
 Mouffette rayée (Striped Skunk) (Mephitis mephitis)
 Souslik à 13 bandes (Thirteen-lined ground squirrel) (Spermophilus tridecemlineatus)
-Cerf de Virginie, cariacou ou cerf à queue blanche (White-tailed deer) (Odocoileus virginianus)
-Oiseaux
-Découverts:
+Cerf de Virginie, cariacou ou cerf à queue blanche (White-tailed deer) (Odocoileus virginianus)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_découvertes_et_décrites_par_l'expédition_Lewis_et_Clark</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%C3%A9couvertes_et_d%C3%A9crites_par_l%27exp%C3%A9dition_Lewis_et_Clark</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Animaux</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Oiseaux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Découverts:
 Pie d'Amérique (Black-billed Magpie) (Pica hudsonia)
 Engoulevent de Nuttall (Common Poorwill) (Phalaenoptilus nuttallii)
 Tétras des armoises (Greater Sage-grouse) (Centrocercus urophasianus)
@@ -615,17 +666,85 @@
 Grue blanche (Grus americana)
 Dindon sauvage (Meleagris gallopavo)
 Chevalier semipalmé (Catoptrophorus semipalmatus)
-Canard branchu (Aix sponsa)
-Reptiles
-Découverts:
+Canard branchu (Aix sponsa)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_découvertes_et_décrites_par_l'expédition_Lewis_et_Clark</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%C3%A9couvertes_et_d%C3%A9crites_par_l%27exp%C3%A9dition_Lewis_et_Clark</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Animaux</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Reptiles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Découverts:
 Crotale des prairies (Crotalus viridis)
 Couleuvre à nez retroussé (Heterodon nasicus)
 Décrits:
 Serpent taureau (Bullsnake) (Pituophis catenifer)
 Trionyx épineux (Apalone spinifera)
-Couleuvre de l'ouest (Thamnophis elegans vagrans)
-Poissons
-Découverts :
+Couleuvre de l'ouest (Thamnophis elegans vagrans)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_découvertes_et_décrites_par_l'expédition_Lewis_et_Clark</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%C3%A9couvertes_et_d%C3%A9crites_par_l%27exp%C3%A9dition_Lewis_et_Clark</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Animaux</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Poissons</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Découverts :
 Poisson-chat bleu (Ictalurus furcatus)
 Barbue de rivière (Channel catfish) (Ictalurus punctatus)
 Salmo clarki ou Oncorhynchus clarkii
@@ -637,31 +756,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Liste_des_esp%C3%A8ces_d%C3%A9couvertes_et_d%C3%A9crites_par_l%27exp%C3%A9dition_Lewis_et_Clark</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_découvertes_et_décrites_par_l'expédition_Lewis_et_Clark</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_d%C3%A9couvertes_et_d%C3%A9crites_par_l%27exp%C3%A9dition_Lewis_et_Clark</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Plantes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Découvertes:
 Sarcobatus vermiculé (Black greasewood) (Sarcobatus vermiculatus)
